--- a/data/IBGE/Produtos.xlsx
+++ b/data/IBGE/Produtos.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca3508b15c96f8f/- Geral^MWork/Consultorias/Projeto Luan e Luiz de Alimentação Infantil/Projeto-Alimentacao-Infantil/data/IBGE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8F2F2D37-2322-4DEF-AA23-36ED611E378F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F19C9E-F02C-4E25-BA56-D78F35EF3D8D}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{03549596-B28F-4748-8424-B355979D3680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62A38D4E-B451-4894-AC28-F64374ADB2E5}"/>
   <bookViews>
-    <workbookView xWindow="8970" yWindow="1380" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17055" yWindow="1680" windowWidth="16665" windowHeight="11865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Produto" sheetId="3" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="Agricultura" sheetId="1" r:id="rId1"/>
+    <sheet name="Pecuaria" sheetId="3" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjikhhpAUbkUCLYcrSQNbmu8j2suQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjq/LQhVPZz3e06PDRFSp2cv/n1Dw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -29,63 +29,99 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Luan Michel</author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{871128A7-56D9-4241-B811-7AC9529924BE}">
+    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Luan Michel:</t>
+          <t>======
+ID#AAAAYqBIHag
+Luan Michel Soares Pereira    (2022-04-30 15:42:19)
+Depois esse nome vai virar em "Produtos da Silvicultura"</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">
+          <t>======
+ID#AAAAYqBIHac
+Luan Michel Soares Pereira    (2022-04-30 15:06:40)
+Depois esse nome vai mudar para "Quantidade produzida de leite de vaca"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhpP9hxtoMj2tu/T8142Ulc0vVttg=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAYjc2ucg
+Luan Michel    (2022-04-25 21:57:08)
 Café arábica em grão (verde), Café canephora (robusta, conilon) em grão (verde), Café torrado em grão e Café torrado e moído, são 4 tipos de café em grão do IBGE</t>
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{01E7427B-C1D8-420C-8302-A1F1D20D7212}">
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Luan Michel:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t>======
+ID#AAAAYjc2ucc
+Luan Michel    (2022-04-25 21:57:08)
 Feijão preto em grão (Toneladas) e Feijão de cor em grão (Toneladas)</t>
         </r>
       </text>
     </comment>
   </commentList>
+  <extLst>
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhCFjsJLt63ZdJfHQO1muCbVrhKTA=="/>
+    </ext>
+  </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Agregados</t>
   </si>
@@ -96,12 +132,30 @@
     <t>Arroz em casca</t>
   </si>
   <si>
+    <t>Trigo em grão</t>
+  </si>
+  <si>
+    <t>Centeio em grão</t>
+  </si>
+  <si>
+    <t>Aveia branca em grão</t>
+  </si>
+  <si>
+    <t>Cevada em casca</t>
+  </si>
+  <si>
     <t>Milho em grão</t>
   </si>
   <si>
     <t>Algodão herbáceo</t>
   </si>
   <si>
+    <t>Juta (fibra)</t>
+  </si>
+  <si>
+    <t>Rami (fibra)</t>
+  </si>
+  <si>
     <t>Cana-de-açúcar</t>
   </si>
   <si>
@@ -123,6 +177,9 @@
     <t>Café torrado e moído</t>
   </si>
   <si>
+    <t>Feijão em grão</t>
+  </si>
+  <si>
     <t>Feijão preto em grão</t>
   </si>
   <si>
@@ -138,12 +195,15 @@
     <t>Inhame</t>
   </si>
   <si>
+    <t>Mandioca (aipim, macaxeira)</t>
+  </si>
+  <si>
+    <t>Tomate (estaqueado)</t>
+  </si>
+  <si>
     <t>Cebola</t>
   </si>
   <si>
-    <t>Tomate (estaqueado)</t>
-  </si>
-  <si>
     <t>Cenoura e Nabo</t>
   </si>
   <si>
@@ -153,6 +213,15 @@
     <t>Nabo</t>
   </si>
   <si>
+    <t>Caju (castanha)</t>
+  </si>
+  <si>
+    <t>Noz (europeia, pecã)</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
     <t>Goiaba e Manga</t>
   </si>
   <si>
@@ -162,46 +231,40 @@
     <t>Manga</t>
   </si>
   <si>
+    <t>Abacate</t>
+  </si>
+  <si>
+    <t>Figo</t>
+  </si>
+  <si>
+    <t>Abacaxi</t>
+  </si>
+  <si>
+    <t>Limão</t>
+  </si>
+  <si>
+    <t>Laranja</t>
+  </si>
+  <si>
+    <t>Uva (mesa)</t>
+  </si>
+  <si>
     <t>Melão</t>
   </si>
   <si>
-    <t>Caju (castanha)</t>
-  </si>
-  <si>
-    <t>Uva (mesa)</t>
-  </si>
-  <si>
-    <t>Limão</t>
+    <t>Mamão</t>
+  </si>
+  <si>
+    <t>Melancia</t>
   </si>
   <si>
     <t>Maçã</t>
   </si>
   <si>
-    <t>Mamão</t>
-  </si>
-  <si>
-    <t>Melancia</t>
-  </si>
-  <si>
-    <t>Laranja</t>
-  </si>
-  <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Abacate</t>
-  </si>
-  <si>
-    <t>Figo</t>
-  </si>
-  <si>
     <t>Pera</t>
   </si>
   <si>
-    <t>Abacaxi</t>
-  </si>
-  <si>
-    <t>Noz (europeia, pecã)</t>
+    <t>Sorgo em grão</t>
   </si>
   <si>
     <t>Outros produtos da Horticultura</t>
@@ -213,13 +276,29 @@
     <t>Outros produtos da lavoura permanente</t>
   </si>
   <si>
+    <t>Produtos da Silvicultura</t>
+  </si>
+  <si>
     <t>Outros produtos da Silvicultura</t>
   </si>
   <si>
+    <t>Pesca e aquicultura (peixe, crustáceos e moluscos)</t>
+  </si>
+  <si>
     <t>Outros produtos Espécie criada na aquicultura x Condição do produtor em relação às terras</t>
   </si>
   <si>
-    <t>Trigo em grão</t>
+    <t>Outros produdos da agroindústria rural</t>
+  </si>
+  <si>
+    <t>leite de vaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros produtos Condição do produtor em relação às terras
+</t>
+  </si>
+  <si>
+    <t>Tabela</t>
   </si>
   <si>
     <t>Alpiste</t>
@@ -228,40 +307,34 @@
     <t>?</t>
   </si>
   <si>
-    <t>Centeio em grão</t>
-  </si>
-  <si>
-    <t>Aveia branca em grão</t>
-  </si>
-  <si>
-    <t>Cevada em casca</t>
-  </si>
-  <si>
-    <t>Juta (fibra)</t>
-  </si>
-  <si>
-    <t>Rami (fibra)</t>
-  </si>
-  <si>
     <t>Café em grão</t>
   </si>
   <si>
     <t>6955 e 6960</t>
   </si>
   <si>
-    <t>Feijão em grão</t>
-  </si>
-  <si>
-    <t>Mandioca (aipim, macaxeira)</t>
-  </si>
-  <si>
-    <t>Sorgo</t>
-  </si>
-  <si>
-    <t>Tabela</t>
-  </si>
-  <si>
-    <t>Outros produdos da agroindústria rural</t>
+    <t>Bovinos - estabelecimentos agropecuários com 50 cabeças e menos</t>
+  </si>
+  <si>
+    <t>Bovinos - estabelecimentos agropecuários com mais de 50 cabeças</t>
+  </si>
+  <si>
+    <t>Carne bovina</t>
+  </si>
+  <si>
+    <t>Carne de Aves e Frangos</t>
+  </si>
+  <si>
+    <t>Aves e Frangos</t>
+  </si>
+  <si>
+    <t>Ovos de galinhas</t>
+  </si>
+  <si>
+    <t>Suínos</t>
+  </si>
+  <si>
+    <t>Carne Suina</t>
   </si>
   <si>
     <t>Produto</t>
@@ -271,7 +344,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,40 +355,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -354,23 +405,21 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,243 +636,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48188AC2-B588-4FD1-9066-236B4FDBB86D}">
-  <dimension ref="A1:A42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1007"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="82.7109375" customWidth="1"/>
     <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -832,271 +655,2000 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A30:A31"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA4CA2A-D1B4-4A55-9584-CB20B802A1E5}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="26" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>6957</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>6957</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6957</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6957</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6953</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6953</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>14</v>
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6957</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B21" s="1">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="7">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="7">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="7">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="7">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
+      <c r="B29" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="7">
+        <v>6955</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>27</v>
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="7">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="7">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="7">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="7">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="7">
+        <v>6955</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
+      <c r="A38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="5">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2049,337 +3601,9 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A44:A45"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E83D19-345B-48C1-8233-F3B93B2BCC5C}">
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7">
-        <v>6953</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7">
-        <v>6953</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="7">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7">
-        <v>6953</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="7">
-        <v>6953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="7">
-        <v>6955</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>6955</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25">
-        <v>6955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>6955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>6955</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>6955</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>6955</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>6955</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <v>6955</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>6955</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <v>6957</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36">
-        <v>6955</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>6955</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>